--- a/mit/6.0001/explore/numerical_analysis.xlsx
+++ b/mit/6.0001/explore/numerical_analysis.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\mamta\learning\mit\6.0001\explore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21FEBF4-DC8E-4F07-8AE3-A3414C91D94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8CB3B5-3E84-43E0-B2E2-3990F6515F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{64F292DE-3FC3-4F48-B43D-D1C4D4AB9460}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{64F292DE-3FC3-4F48-B43D-D1C4D4AB9460}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>g</t>
   </si>
@@ -51,19 +53,103 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>MVR ENTERPRISES</t>
+  </si>
+  <si>
+    <t>Phone No.</t>
+  </si>
+  <si>
+    <t>Furniture Service Centre</t>
+  </si>
+  <si>
+    <t>Service Cost</t>
+  </si>
+  <si>
+    <t>Material Cost</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Neeotech</t>
+  </si>
+  <si>
+    <t>Chairwale</t>
+  </si>
+  <si>
+    <t>Mam Solution</t>
+  </si>
+  <si>
+    <t>No Answer</t>
+  </si>
+  <si>
+    <t>They need to update cost</t>
+  </si>
+  <si>
+    <t>Refurbished Chairs Cost</t>
+  </si>
+  <si>
+    <t>Furniture shops</t>
+  </si>
+  <si>
+    <t>Only New chair available</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Harsita chair repair and service</t>
+  </si>
+  <si>
+    <t>A M Z H Classic Furnitures</t>
+  </si>
+  <si>
+    <t>New Chair</t>
+  </si>
+  <si>
+    <t>3000 - 3500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Company Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Repairing Revolving Chairs</t>
+  </si>
+  <si>
+    <t>3500 - 3900</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF160C0C"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,9 +187,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -119,6 +216,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,7 +541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77E414A-85D3-433F-ACD9-4A78F6D42FC3}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -686,4 +787,211 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3921620D-530A-401F-A5CD-03564091D4BB}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6">
+        <v>9740699820</v>
+      </c>
+      <c r="E3">
+        <v>1400</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6">
+        <v>8050701482</v>
+      </c>
+      <c r="E4">
+        <v>1200</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1200</v>
+      </c>
+      <c r="H4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6">
+        <v>9964431042</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6">
+        <v>6366936373</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6">
+        <v>9611270705</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6">
+        <v>8042197133</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6">
+        <v>7411724487</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="6">
+        <v>7942695737</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>